--- a/data/pca/factorExposure/factorExposure_2009-11-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004684245033868874</v>
+        <v>0.01657774164161206</v>
       </c>
       <c r="C2">
-        <v>0.008609317346479293</v>
+        <v>-0.0009665489719018763</v>
       </c>
       <c r="D2">
-        <v>0.003084662577108239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007799102221042309</v>
+      </c>
+      <c r="E2">
+        <v>-0.0004571296776767979</v>
+      </c>
+      <c r="F2">
+        <v>0.0116053770595576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.04248054703470665</v>
+        <v>0.09381114866089525</v>
       </c>
       <c r="C4">
-        <v>0.1061298857438519</v>
+        <v>-0.01521104379322087</v>
       </c>
       <c r="D4">
-        <v>0.04139410523973731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08384478521947571</v>
+      </c>
+      <c r="E4">
+        <v>-0.0283282296275682</v>
+      </c>
+      <c r="F4">
+        <v>-0.03102176809677158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.05719713139665081</v>
+        <v>0.1576647090498579</v>
       </c>
       <c r="C6">
-        <v>0.1216738689250667</v>
+        <v>-0.02554132546370805</v>
       </c>
       <c r="D6">
-        <v>-0.03816601272008581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02084612217427336</v>
+      </c>
+      <c r="E6">
+        <v>-0.01219590961939727</v>
+      </c>
+      <c r="F6">
+        <v>-0.04638486179370889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0190833507812627</v>
+        <v>0.06275716409722082</v>
       </c>
       <c r="C7">
-        <v>0.07826586859389728</v>
+        <v>0.001570802847495564</v>
       </c>
       <c r="D7">
-        <v>0.01592878154877311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05291948292495352</v>
+      </c>
+      <c r="E7">
+        <v>-0.009681907715198623</v>
+      </c>
+      <c r="F7">
+        <v>-0.04757441725079199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00570075643169577</v>
+        <v>0.05705386792255288</v>
       </c>
       <c r="C8">
-        <v>0.06634874565014469</v>
+        <v>0.01350387412718466</v>
       </c>
       <c r="D8">
-        <v>-0.01645288785811203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03328928870495929</v>
+      </c>
+      <c r="E8">
+        <v>-0.01712541367112022</v>
+      </c>
+      <c r="F8">
+        <v>0.02804011668519584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03723225673317777</v>
+        <v>0.07123536565120649</v>
       </c>
       <c r="C9">
-        <v>0.09446943387275375</v>
+        <v>-0.01083804830881728</v>
       </c>
       <c r="D9">
-        <v>0.03742929258244987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08594177198058366</v>
+      </c>
+      <c r="E9">
+        <v>-0.02273175334793795</v>
+      </c>
+      <c r="F9">
+        <v>-0.04719948586832305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01805088271497553</v>
+        <v>0.09484628531873998</v>
       </c>
       <c r="C10">
-        <v>0.03227098537270054</v>
+        <v>-0.02087460603074687</v>
       </c>
       <c r="D10">
-        <v>-0.1244142805629815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1701127029458414</v>
+      </c>
+      <c r="E10">
+        <v>0.03555345583182536</v>
+      </c>
+      <c r="F10">
+        <v>0.05404567706524131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03962807116355656</v>
+        <v>0.08739280912016868</v>
       </c>
       <c r="C11">
-        <v>0.09361604213629703</v>
+        <v>-0.01051280130015192</v>
       </c>
       <c r="D11">
-        <v>0.05824180038192511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1167898060959281</v>
+      </c>
+      <c r="E11">
+        <v>-0.04609182211680792</v>
+      </c>
+      <c r="F11">
+        <v>-0.02184962832580422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03949380028907577</v>
+        <v>0.0920252958030644</v>
       </c>
       <c r="C12">
-        <v>0.1022438755688269</v>
+        <v>-0.007882067605182655</v>
       </c>
       <c r="D12">
-        <v>0.059125416848868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316241658461293</v>
+      </c>
+      <c r="E12">
+        <v>-0.0477583542873961</v>
+      </c>
+      <c r="F12">
+        <v>-0.02686334984583585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01452690838937623</v>
+        <v>0.04179363194738103</v>
       </c>
       <c r="C13">
-        <v>0.03951876440015355</v>
+        <v>-0.002931010798425915</v>
       </c>
       <c r="D13">
-        <v>0.02954278851307732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05223733847941762</v>
+      </c>
+      <c r="E13">
+        <v>0.008350988778313346</v>
+      </c>
+      <c r="F13">
+        <v>-0.003094739237813951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02001988989629358</v>
+        <v>0.02257646647635321</v>
       </c>
       <c r="C14">
-        <v>0.01835363991929151</v>
+        <v>-0.0136650326155179</v>
       </c>
       <c r="D14">
-        <v>0.006090211350166594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03314449277495782</v>
+      </c>
+      <c r="E14">
+        <v>-0.01749161473330898</v>
+      </c>
+      <c r="F14">
+        <v>-0.01344983242069674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0161545432688203</v>
+        <v>0.03318913741215962</v>
       </c>
       <c r="C15">
-        <v>0.03201391550039027</v>
+        <v>-0.004805679473372451</v>
       </c>
       <c r="D15">
-        <v>0.01099400101864248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04485423927969229</v>
+      </c>
+      <c r="E15">
+        <v>-0.005815951841568761</v>
+      </c>
+      <c r="F15">
+        <v>-0.02325805384515698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02952197893207721</v>
+        <v>0.07415281191662937</v>
       </c>
       <c r="C16">
-        <v>0.09440433392505891</v>
+        <v>-0.001625870621086102</v>
       </c>
       <c r="D16">
-        <v>0.05043326513739452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253637415242116</v>
+      </c>
+      <c r="E16">
+        <v>-0.06144428029706874</v>
+      </c>
+      <c r="F16">
+        <v>-0.02386294238047717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03289312865200476</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003570417285494526</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01845031147260017</v>
+      </c>
+      <c r="E18">
+        <v>0.007925390876760037</v>
+      </c>
+      <c r="F18">
+        <v>0.006144501503279279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02004298354754046</v>
+        <v>0.06079325588428836</v>
       </c>
       <c r="C20">
-        <v>0.05726830132213543</v>
+        <v>-0.0002209066899279752</v>
       </c>
       <c r="D20">
-        <v>0.01213910452764844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07729500897032092</v>
+      </c>
+      <c r="E20">
+        <v>-0.0554893846107306</v>
+      </c>
+      <c r="F20">
+        <v>-0.02230981430893218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01864095440987048</v>
+        <v>0.0406670015289603</v>
       </c>
       <c r="C21">
-        <v>0.03184065353306676</v>
+        <v>-0.006509353187587185</v>
       </c>
       <c r="D21">
-        <v>-0.003752094473664855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03700204454875971</v>
+      </c>
+      <c r="E21">
+        <v>0.005836735936077894</v>
+      </c>
+      <c r="F21">
+        <v>0.0241328585999495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.008601234450269271</v>
+        <v>0.04348538165077944</v>
       </c>
       <c r="C22">
-        <v>0.03080940136453792</v>
+        <v>-0.0006833125421857859</v>
       </c>
       <c r="D22">
-        <v>-0.03056842090548688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004514399274736753</v>
+      </c>
+      <c r="E22">
+        <v>-0.03030474865553774</v>
+      </c>
+      <c r="F22">
+        <v>0.0366899329839161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.008585490529529777</v>
+        <v>0.04347096402506204</v>
       </c>
       <c r="C23">
-        <v>0.03076075642552927</v>
+        <v>-0.0006789444546608737</v>
       </c>
       <c r="D23">
-        <v>-0.03063177102940053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004519056823605807</v>
+      </c>
+      <c r="E23">
+        <v>-0.03050615098148893</v>
+      </c>
+      <c r="F23">
+        <v>0.03665436375220912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0308189870221591</v>
+        <v>0.07988111620365376</v>
       </c>
       <c r="C24">
-        <v>0.1010549257668793</v>
+        <v>-0.002089487082999977</v>
       </c>
       <c r="D24">
-        <v>0.05501690425609972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1208948940692651</v>
+      </c>
+      <c r="E24">
+        <v>-0.04882888511309418</v>
+      </c>
+      <c r="F24">
+        <v>-0.02597680122239434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.03392249171446243</v>
+        <v>0.08466614160477202</v>
       </c>
       <c r="C25">
-        <v>0.09484692043366469</v>
+        <v>-0.004413144716993267</v>
       </c>
       <c r="D25">
-        <v>0.06400363377310611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092658650649336</v>
+      </c>
+      <c r="E25">
+        <v>-0.03233465351310353</v>
+      </c>
+      <c r="F25">
+        <v>-0.02626121288147058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02923597884756474</v>
+        <v>0.05802320565911603</v>
       </c>
       <c r="C26">
-        <v>0.04345204714938733</v>
+        <v>-0.01431387056768285</v>
       </c>
       <c r="D26">
-        <v>0.001235035389554129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0403261356675336</v>
+      </c>
+      <c r="E26">
+        <v>-0.02846691467042025</v>
+      </c>
+      <c r="F26">
+        <v>0.009852746049934608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.02319485631366769</v>
+        <v>0.1402560313791061</v>
       </c>
       <c r="C28">
-        <v>0.07579361975844762</v>
+        <v>-0.0204601190965891</v>
       </c>
       <c r="D28">
-        <v>-0.2238990216573199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2617145626776443</v>
+      </c>
+      <c r="E28">
+        <v>0.06745623738678896</v>
+      </c>
+      <c r="F28">
+        <v>-0.01048138839273893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01579679767824529</v>
+        <v>0.02737653805547719</v>
       </c>
       <c r="C29">
-        <v>0.01919108782467496</v>
+        <v>-0.008314979721138812</v>
       </c>
       <c r="D29">
-        <v>0.004352946775858227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03176687220918534</v>
+      </c>
+      <c r="E29">
+        <v>-0.01104525881309329</v>
+      </c>
+      <c r="F29">
+        <v>0.01206275128496062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.03132560886166313</v>
+        <v>0.06096007550883621</v>
       </c>
       <c r="C30">
-        <v>0.1163069183888077</v>
+        <v>-0.003135785642866433</v>
       </c>
       <c r="D30">
-        <v>0.04448091721995422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08931353705330666</v>
+      </c>
+      <c r="E30">
+        <v>-0.01948486110734793</v>
+      </c>
+      <c r="F30">
+        <v>-0.08312981437905424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02458711230432729</v>
+        <v>0.05007218981782829</v>
       </c>
       <c r="C31">
-        <v>0.0292259420911022</v>
+        <v>-0.01513416365416005</v>
       </c>
       <c r="D31">
-        <v>0.01065186749397613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02480411332629761</v>
+      </c>
+      <c r="E31">
+        <v>-0.02749761000413357</v>
+      </c>
+      <c r="F31">
+        <v>0.002254651362069379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01463354105974657</v>
+        <v>0.04985849545699003</v>
       </c>
       <c r="C32">
-        <v>0.05536736229580504</v>
+        <v>0.001697578802942552</v>
       </c>
       <c r="D32">
-        <v>-0.003826842953452717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03704252809609336</v>
+      </c>
+      <c r="E32">
+        <v>-0.03175114699525042</v>
+      </c>
+      <c r="F32">
+        <v>-0.002727105094216675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.03646302118867997</v>
+        <v>0.08978667779413298</v>
       </c>
       <c r="C33">
-        <v>0.1036873044651194</v>
+        <v>-0.00743061013815938</v>
       </c>
       <c r="D33">
-        <v>0.03989620434088933</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0994813571574102</v>
+      </c>
+      <c r="E33">
+        <v>-0.04390732806727932</v>
+      </c>
+      <c r="F33">
+        <v>-0.03551033714408657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03599388904479791</v>
+        <v>0.06742843092456452</v>
       </c>
       <c r="C34">
-        <v>0.08536920903121421</v>
+        <v>-0.01045963167763924</v>
       </c>
       <c r="D34">
-        <v>0.05477466409813537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1078190350526671</v>
+      </c>
+      <c r="E34">
+        <v>-0.03437874605580487</v>
+      </c>
+      <c r="F34">
+        <v>-0.03324710215656201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.007669513558100371</v>
+        <v>0.02438534122365967</v>
       </c>
       <c r="C35">
-        <v>0.01994053098074575</v>
+        <v>-0.002379362418762103</v>
       </c>
       <c r="D35">
-        <v>0.0002600922818680457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01138576210941112</v>
+      </c>
+      <c r="E35">
+        <v>-0.01145198657237148</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004296832346719167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01650446396962357</v>
+        <v>0.02784793192803845</v>
       </c>
       <c r="C36">
-        <v>0.03140928815635572</v>
+        <v>-0.007035006797343507</v>
       </c>
       <c r="D36">
-        <v>0.009972432355202423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03944751452068351</v>
+      </c>
+      <c r="E36">
+        <v>-0.01648534511462549</v>
+      </c>
+      <c r="F36">
+        <v>-0.01444427749565647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003563086574814021</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001049993597389209</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0002953137839803708</v>
+      </c>
+      <c r="E37">
+        <v>0.0003695671193775431</v>
+      </c>
+      <c r="F37">
+        <v>-0.0007649209770336413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008690879125161097</v>
+        <v>0.001418612097729233</v>
       </c>
       <c r="C38">
-        <v>0.003247204591776315</v>
+        <v>-0.000241930194288161</v>
       </c>
       <c r="D38">
-        <v>-0.001971138788401734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003170073761524107</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003002040320559399</v>
+      </c>
+      <c r="F38">
+        <v>0.0008829073629136987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.05501334728440326</v>
+        <v>0.1053324655840684</v>
       </c>
       <c r="C39">
-        <v>0.1375136213067238</v>
+        <v>-0.01572613868199091</v>
       </c>
       <c r="D39">
-        <v>0.1021369486715416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539708683248911</v>
+      </c>
+      <c r="E39">
+        <v>-0.05893531133134097</v>
+      </c>
+      <c r="F39">
+        <v>-0.02929745975213486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01419371004484391</v>
+        <v>0.04214111662201455</v>
       </c>
       <c r="C40">
-        <v>0.0167476395426332</v>
+        <v>-0.006597707228111754</v>
       </c>
       <c r="D40">
-        <v>-0.01191217845637535</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03178036930850542</v>
+      </c>
+      <c r="E40">
+        <v>-0.002880356704316589</v>
+      </c>
+      <c r="F40">
+        <v>0.01583660943013864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01280364836659174</v>
+        <v>0.0280509949612445</v>
       </c>
       <c r="C41">
-        <v>0.0129994598466632</v>
+        <v>-0.006850632346043353</v>
       </c>
       <c r="D41">
-        <v>-0.008136236801708319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01008480842288995</v>
+      </c>
+      <c r="E41">
+        <v>-0.01241150905333794</v>
+      </c>
+      <c r="F41">
+        <v>0.006392321436729654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01525743526356502</v>
+        <v>0.04077830875253109</v>
       </c>
       <c r="C43">
-        <v>0.02121773118818564</v>
+        <v>-0.006817784454410969</v>
       </c>
       <c r="D43">
-        <v>-8.324786693868314e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01943445114662834</v>
+      </c>
+      <c r="E43">
+        <v>-0.02452918128052806</v>
+      </c>
+      <c r="F43">
+        <v>0.01331987960359859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05013726581264961</v>
+        <v>0.07953836896872921</v>
       </c>
       <c r="C44">
-        <v>0.1164376650516002</v>
+        <v>-0.01989931277719254</v>
       </c>
       <c r="D44">
-        <v>0.03098165362227336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09743669894756865</v>
+      </c>
+      <c r="E44">
+        <v>-0.06475354454216906</v>
+      </c>
+      <c r="F44">
+        <v>-0.1550144944600791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005907979693146936</v>
+        <v>0.02313641186050396</v>
       </c>
       <c r="C46">
-        <v>0.005672845381997771</v>
+        <v>-0.003382122657171854</v>
       </c>
       <c r="D46">
-        <v>-0.01134835953882396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01286305336469691</v>
+      </c>
+      <c r="E46">
+        <v>-0.02183863125594785</v>
+      </c>
+      <c r="F46">
+        <v>0.006630995093632394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01417045389260552</v>
+        <v>0.05138227302848737</v>
       </c>
       <c r="C47">
-        <v>0.03061455901314738</v>
+        <v>-0.003432467109179096</v>
       </c>
       <c r="D47">
-        <v>-0.02052078143510372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01384043377939336</v>
+      </c>
+      <c r="E47">
+        <v>-0.02345531138342686</v>
+      </c>
+      <c r="F47">
+        <v>0.03348278009053749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01709365763955508</v>
+        <v>0.04994098569826193</v>
       </c>
       <c r="C48">
-        <v>0.04580349444316482</v>
+        <v>-0.002406098539076409</v>
       </c>
       <c r="D48">
-        <v>0.02794899281233149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04982033506157717</v>
+      </c>
+      <c r="E48">
+        <v>0.006149786570814627</v>
+      </c>
+      <c r="F48">
+        <v>-0.009271273914346095</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.06835054711157498</v>
+        <v>0.2003394194501424</v>
       </c>
       <c r="C49">
-        <v>0.2211229664551882</v>
+        <v>-0.01903366235603098</v>
       </c>
       <c r="D49">
-        <v>-0.04645370426823292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008260553318130068</v>
+      </c>
+      <c r="E49">
+        <v>-0.03067916431576583</v>
+      </c>
+      <c r="F49">
+        <v>-0.03910793901255553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02211586180375082</v>
+        <v>0.0505322653461684</v>
       </c>
       <c r="C50">
-        <v>0.03297852574841882</v>
+        <v>-0.01109350905193183</v>
       </c>
       <c r="D50">
-        <v>0.005938412342550758</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02404056938516965</v>
+      </c>
+      <c r="E50">
+        <v>-0.02986778638717842</v>
+      </c>
+      <c r="F50">
+        <v>-0.009348104769169275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003747215121075166</v>
+        <v>0.0005109027641294979</v>
       </c>
       <c r="C51">
-        <v>0.001126824581257258</v>
+        <v>-0.0001434771452398069</v>
       </c>
       <c r="D51">
-        <v>-0.0009461936913885608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001900604468625919</v>
+      </c>
+      <c r="E51">
+        <v>-3.079885578212652e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001894643966507901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05016985462736445</v>
+        <v>0.1465173392992396</v>
       </c>
       <c r="C52">
-        <v>0.1509802051554168</v>
+        <v>-0.01590974307017313</v>
       </c>
       <c r="D52">
-        <v>0.02651647229904339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04449358947495135</v>
+      </c>
+      <c r="E52">
+        <v>-0.02072095599916011</v>
+      </c>
+      <c r="F52">
+        <v>-0.04196209041882513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.05496895598763828</v>
+        <v>0.1719890244037101</v>
       </c>
       <c r="C53">
-        <v>0.1710200190130943</v>
+        <v>-0.01890685132180319</v>
       </c>
       <c r="D53">
-        <v>-0.004341360294068787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006968310377270904</v>
+      </c>
+      <c r="E53">
+        <v>-0.03237587274078423</v>
+      </c>
+      <c r="F53">
+        <v>-0.073335281391872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01937174933613968</v>
+        <v>0.02226330525228434</v>
       </c>
       <c r="C54">
-        <v>0.03139724098301241</v>
+        <v>-0.01216428147395739</v>
       </c>
       <c r="D54">
-        <v>0.004819673951418657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03442749929764775</v>
+      </c>
+      <c r="E54">
+        <v>-0.01850993366903565</v>
+      </c>
+      <c r="F54">
+        <v>0.004444141920746875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.03796007028956945</v>
+        <v>0.1141833111944701</v>
       </c>
       <c r="C55">
-        <v>0.09596271290397472</v>
+        <v>-0.01648162667077945</v>
       </c>
       <c r="D55">
-        <v>0.002970798539827809</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009690686426257564</v>
+      </c>
+      <c r="E55">
+        <v>-0.028465758477972</v>
+      </c>
+      <c r="F55">
+        <v>-0.04779826485523467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.05061979966507289</v>
+        <v>0.1769556388734048</v>
       </c>
       <c r="C56">
-        <v>0.1588281051404165</v>
+        <v>-0.016497712897887</v>
       </c>
       <c r="D56">
-        <v>-0.009644974587297645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007509160259895832</v>
+      </c>
+      <c r="E56">
+        <v>-0.03590556601300249</v>
+      </c>
+      <c r="F56">
+        <v>-0.05180806963356753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01754853050109114</v>
+        <v>0.04612248030165667</v>
       </c>
       <c r="C58">
-        <v>0.04255329509954818</v>
+        <v>-0.0004324812165314419</v>
       </c>
       <c r="D58">
-        <v>0.02524410553168587</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0676014146464245</v>
+      </c>
+      <c r="E58">
+        <v>-0.02705162353239493</v>
+      </c>
+      <c r="F58">
+        <v>0.0368425404174101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.03375120845227943</v>
+        <v>0.1682102548558489</v>
       </c>
       <c r="C59">
-        <v>0.1186096505632419</v>
+        <v>-0.02099839062082892</v>
       </c>
       <c r="D59">
-        <v>-0.2158069626854301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2186657870394341</v>
+      </c>
+      <c r="E59">
+        <v>0.0465498751170644</v>
+      </c>
+      <c r="F59">
+        <v>0.03464570048054292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.05756228383787064</v>
+        <v>0.2318429770231557</v>
       </c>
       <c r="C60">
-        <v>0.259844273996108</v>
+        <v>0.002644033427468287</v>
       </c>
       <c r="D60">
-        <v>0.02035795264226089</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04189871465411622</v>
+      </c>
+      <c r="E60">
+        <v>-0.01113164895871547</v>
+      </c>
+      <c r="F60">
+        <v>0.006828740027195962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.04285629247268071</v>
+        <v>0.08155214635376001</v>
       </c>
       <c r="C61">
-        <v>0.1206892913714641</v>
+        <v>-0.01159861616752413</v>
       </c>
       <c r="D61">
-        <v>0.04505552627200304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1170334659164851</v>
+      </c>
+      <c r="E61">
+        <v>-0.03880130118997275</v>
+      </c>
+      <c r="F61">
+        <v>-0.0110466928986462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.05386409835227494</v>
+        <v>0.1701415429353974</v>
       </c>
       <c r="C62">
-        <v>0.159722626372027</v>
+        <v>-0.01992608753998041</v>
       </c>
       <c r="D62">
-        <v>-0.00414087130803068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00657303122170839</v>
+      </c>
+      <c r="E62">
+        <v>-0.03524679181825234</v>
+      </c>
+      <c r="F62">
+        <v>-0.03290722031645538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01662873357614369</v>
+        <v>0.04602123729830757</v>
       </c>
       <c r="C63">
-        <v>0.04613422394878957</v>
+        <v>-0.001830092926013643</v>
       </c>
       <c r="D63">
-        <v>0.02810510642612218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05818184662651894</v>
+      </c>
+      <c r="E63">
+        <v>-0.02143329407749319</v>
+      </c>
+      <c r="F63">
+        <v>-0.004803165173816739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.03546253277726828</v>
+        <v>0.1103822096220404</v>
       </c>
       <c r="C64">
-        <v>0.08723157643992779</v>
+        <v>-0.01103117095117589</v>
       </c>
       <c r="D64">
-        <v>0.01023586293526166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04362044099683046</v>
+      </c>
+      <c r="E64">
+        <v>-0.02491291829568759</v>
+      </c>
+      <c r="F64">
+        <v>-0.02582166477373966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.059508105756556</v>
+        <v>0.1475851296582654</v>
       </c>
       <c r="C65">
-        <v>0.1181540455002722</v>
+        <v>-0.03261823225833329</v>
       </c>
       <c r="D65">
-        <v>-0.03010356101388529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04012063929603604</v>
+      </c>
+      <c r="E65">
+        <v>-0.005506873906080447</v>
+      </c>
+      <c r="F65">
+        <v>-0.0405434200470104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.05871254708014634</v>
+        <v>0.1246833358814083</v>
       </c>
       <c r="C66">
-        <v>0.1707928905585482</v>
+        <v>-0.01387196866373042</v>
       </c>
       <c r="D66">
-        <v>0.08448303271965421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1423896823566256</v>
+      </c>
+      <c r="E66">
+        <v>-0.06628679459640657</v>
+      </c>
+      <c r="F66">
+        <v>-0.03139592655870344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.02129180912715766</v>
+        <v>0.06065636880062449</v>
       </c>
       <c r="C67">
-        <v>0.06834291266661036</v>
+        <v>-0.003331303047724052</v>
       </c>
       <c r="D67">
-        <v>0.01617887627893455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05545812455248714</v>
+      </c>
+      <c r="E67">
+        <v>-0.01753042108801393</v>
+      </c>
+      <c r="F67">
+        <v>0.03403425113351397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.02811427019223847</v>
+        <v>0.1161199590834061</v>
       </c>
       <c r="C68">
-        <v>0.04947287674929455</v>
+        <v>-0.03134518608326248</v>
       </c>
       <c r="D68">
-        <v>-0.1926720626005377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2603709786073422</v>
+      </c>
+      <c r="E68">
+        <v>0.08622425002230852</v>
+      </c>
+      <c r="F68">
+        <v>-0.006592317995476284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01042438555627165</v>
+        <v>0.04002232598690335</v>
       </c>
       <c r="C69">
-        <v>0.03610630349867876</v>
+        <v>-0.001484722533900694</v>
       </c>
       <c r="D69">
-        <v>-0.01730736744105761</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006865099254702551</v>
+      </c>
+      <c r="E69">
+        <v>-0.0227396056836892</v>
+      </c>
+      <c r="F69">
+        <v>0.0005534366582439553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01339960940991638</v>
+        <v>0.0657830366110464</v>
       </c>
       <c r="C70">
-        <v>0.02161275357528347</v>
+        <v>0.02778049954727923</v>
       </c>
       <c r="D70">
-        <v>-0.03504180740469406</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02480214659870881</v>
+      </c>
+      <c r="E70">
+        <v>0.03929419388891971</v>
+      </c>
+      <c r="F70">
+        <v>0.1846387094713425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.03492424448259027</v>
+        <v>0.1362250660395629</v>
       </c>
       <c r="C71">
-        <v>0.06546898331474936</v>
+        <v>-0.03566312591432649</v>
       </c>
       <c r="D71">
-        <v>-0.2118742053978824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2729372045955253</v>
+      </c>
+      <c r="E71">
+        <v>0.09590639880350582</v>
+      </c>
+      <c r="F71">
+        <v>-0.01275856367015445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.05366490200610234</v>
+        <v>0.141709063219936</v>
       </c>
       <c r="C72">
-        <v>0.121725310656431</v>
+        <v>-0.02608807526260155</v>
       </c>
       <c r="D72">
-        <v>-0.02572213470410638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0007250693881717485</v>
+      </c>
+      <c r="E72">
+        <v>-0.0388963702753375</v>
+      </c>
+      <c r="F72">
+        <v>-0.03328505867116641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.06135698010616139</v>
+        <v>0.201462171711089</v>
       </c>
       <c r="C73">
-        <v>0.2090122896412415</v>
+        <v>-0.01231794297761058</v>
       </c>
       <c r="D73">
-        <v>-0.03980078711548728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01665392145311261</v>
+      </c>
+      <c r="E73">
+        <v>-0.06334611000664771</v>
+      </c>
+      <c r="F73">
+        <v>-0.03669359076683813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0363554861087508</v>
+        <v>0.09467816270046273</v>
       </c>
       <c r="C74">
-        <v>0.1094080048798677</v>
+        <v>-0.01315289501231362</v>
       </c>
       <c r="D74">
-        <v>-0.01227478486761392</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0172622713403267</v>
+      </c>
+      <c r="E74">
+        <v>-0.04423872846399566</v>
+      </c>
+      <c r="F74">
+        <v>-0.05678602018625824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.05846178977325436</v>
+        <v>0.1277963514289046</v>
       </c>
       <c r="C75">
-        <v>0.1334784281968888</v>
+        <v>-0.02801764630942326</v>
       </c>
       <c r="D75">
-        <v>-0.0170750174647497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03004484290014001</v>
+      </c>
+      <c r="E75">
+        <v>-0.05829123496187891</v>
+      </c>
+      <c r="F75">
+        <v>-0.01872992685712027</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>6.071182804776934e-06</v>
+        <v>-7.06698346349566e-06</v>
       </c>
       <c r="C76">
-        <v>-6.178772297783608e-05</v>
+        <v>-3.660022563724703e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0005183104805121588</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0003990670912406976</v>
+      </c>
+      <c r="E76">
+        <v>0.0002682523668518505</v>
+      </c>
+      <c r="F76">
+        <v>-0.0001990815388136332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.03484207889685504</v>
+        <v>0.08697835718237104</v>
       </c>
       <c r="C77">
-        <v>0.09226893444226758</v>
+        <v>-0.008082060233833257</v>
       </c>
       <c r="D77">
-        <v>0.07480358481872787</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1130685643654537</v>
+      </c>
+      <c r="E77">
+        <v>-0.03918487063554921</v>
+      </c>
+      <c r="F77">
+        <v>-0.03261761084253284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.07508634466915062</v>
+        <v>0.1006850420295658</v>
       </c>
       <c r="C78">
-        <v>0.1307256930131267</v>
+        <v>-0.0395678389513803</v>
       </c>
       <c r="D78">
-        <v>-0.0002672227471371614</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1157831355292819</v>
+      </c>
+      <c r="E78">
+        <v>-0.07365066764894398</v>
+      </c>
+      <c r="F78">
+        <v>-0.04530621728828393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.0553241197608324</v>
+        <v>0.1645787489357</v>
       </c>
       <c r="C79">
-        <v>0.1433802281823027</v>
+        <v>-0.02236819324901316</v>
       </c>
       <c r="D79">
-        <v>-0.02408840959849293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01491094161284917</v>
+      </c>
+      <c r="E79">
+        <v>-0.04644341519584904</v>
+      </c>
+      <c r="F79">
+        <v>-0.01078528478863835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.02085342954351375</v>
+        <v>0.08284372928027968</v>
       </c>
       <c r="C80">
-        <v>0.08384882720485112</v>
+        <v>0.0007372848100380549</v>
       </c>
       <c r="D80">
-        <v>0.00603397695694201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0557503730519401</v>
+      </c>
+      <c r="E80">
+        <v>-0.03630972826981126</v>
+      </c>
+      <c r="F80">
+        <v>0.02417360606161797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.05916407969466538</v>
+        <v>0.1211748797923903</v>
       </c>
       <c r="C81">
-        <v>0.1296663315311417</v>
+        <v>-0.03182004176305993</v>
       </c>
       <c r="D81">
-        <v>0.0005353940916698066</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01526977689984016</v>
+      </c>
+      <c r="E81">
+        <v>-0.05730053182190784</v>
+      </c>
+      <c r="F81">
+        <v>-0.01643709777800841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.05836585719003273</v>
+        <v>0.1658440136974494</v>
       </c>
       <c r="C82">
-        <v>0.1579394540380399</v>
+        <v>-0.02426893628455466</v>
       </c>
       <c r="D82">
-        <v>-0.00267874950190031</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004076992956975229</v>
+      </c>
+      <c r="E82">
+        <v>-0.02884679948674223</v>
+      </c>
+      <c r="F82">
+        <v>-0.08047864076512494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02448545760446249</v>
+        <v>0.05985515535207567</v>
       </c>
       <c r="C83">
-        <v>0.06683658453789158</v>
+        <v>-0.002869465578978927</v>
       </c>
       <c r="D83">
-        <v>0.01878052641669226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05143721710318509</v>
+      </c>
+      <c r="E83">
+        <v>-0.005358164687338921</v>
+      </c>
+      <c r="F83">
+        <v>0.03167297084135055</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03275119017489942</v>
+        <v>0.05882245955834895</v>
       </c>
       <c r="C84">
-        <v>0.07152514958762517</v>
+        <v>-0.01117493049899616</v>
       </c>
       <c r="D84">
-        <v>0.03472825395023792</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0634293783804744</v>
+      </c>
+      <c r="E84">
+        <v>-0.006325751949688596</v>
+      </c>
+      <c r="F84">
+        <v>-0.003882180433403098</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.05582431501928623</v>
+        <v>0.1367297166867794</v>
       </c>
       <c r="C85">
-        <v>0.1215349629318746</v>
+        <v>-0.02766511519837237</v>
       </c>
       <c r="D85">
-        <v>-0.009297733626131413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.010347694299589</v>
+      </c>
+      <c r="E85">
+        <v>-0.03855232814425909</v>
+      </c>
+      <c r="F85">
+        <v>-0.045836082226694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01972546063035025</v>
+        <v>0.09478571643101766</v>
       </c>
       <c r="C86">
-        <v>0.08772220834345819</v>
+        <v>0.006109720212655372</v>
       </c>
       <c r="D86">
-        <v>-0.1279150011627853</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03999897717127325</v>
+      </c>
+      <c r="E86">
+        <v>-0.2106650895163143</v>
+      </c>
+      <c r="F86">
+        <v>0.9082241812309446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0547976257802651</v>
+        <v>0.09698772560010226</v>
       </c>
       <c r="C87">
-        <v>0.1155022766674371</v>
+        <v>-0.01971142079170513</v>
       </c>
       <c r="D87">
-        <v>0.06029252879114104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09547585405358734</v>
+      </c>
+      <c r="E87">
+        <v>0.05127144330291943</v>
+      </c>
+      <c r="F87">
+        <v>-0.05369492105965601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01996578749206763</v>
+        <v>0.06101778527830975</v>
       </c>
       <c r="C88">
-        <v>0.05493147528516115</v>
+        <v>-0.002162799775031765</v>
       </c>
       <c r="D88">
-        <v>0.01319547265282982</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04963579554100626</v>
+      </c>
+      <c r="E88">
+        <v>-0.02466077117808115</v>
+      </c>
+      <c r="F88">
+        <v>-0.01215041842730836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.01759043700150376</v>
+        <v>0.1333861325239068</v>
       </c>
       <c r="C89">
-        <v>0.07770529690038923</v>
+        <v>-0.01294671328142979</v>
       </c>
       <c r="D89">
-        <v>-0.2338981360314038</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2502745740484242</v>
+      </c>
+      <c r="E89">
+        <v>0.09106502596882309</v>
+      </c>
+      <c r="F89">
+        <v>0.00761499448288116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.03344685159616559</v>
+        <v>0.1506985080863851</v>
       </c>
       <c r="C90">
-        <v>0.06472882454738742</v>
+        <v>-0.03193547205864335</v>
       </c>
       <c r="D90">
-        <v>-0.2091215858457521</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2697874188422665</v>
+      </c>
+      <c r="E90">
+        <v>0.1126096400633628</v>
+      </c>
+      <c r="F90">
+        <v>0.001006013293252353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.03975102923190912</v>
+        <v>0.1207253909732005</v>
       </c>
       <c r="C91">
-        <v>0.1116006705106282</v>
+        <v>-0.01891703210753143</v>
       </c>
       <c r="D91">
-        <v>-0.03145773810914224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01317466218449759</v>
+      </c>
+      <c r="E91">
+        <v>-0.05658388933186961</v>
+      </c>
+      <c r="F91">
+        <v>0.002164687267249488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.02293400066267416</v>
+        <v>0.1475130317849526</v>
       </c>
       <c r="C92">
-        <v>0.08812467813686693</v>
+        <v>-0.02362975747746368</v>
       </c>
       <c r="D92">
-        <v>-0.2401844930077679</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2925165279563858</v>
+      </c>
+      <c r="E92">
+        <v>0.101676923416667</v>
+      </c>
+      <c r="F92">
+        <v>0.01256669526353126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.03142737520140198</v>
+        <v>0.1521984366821223</v>
       </c>
       <c r="C93">
-        <v>0.08048880062005348</v>
+        <v>-0.02781134460968451</v>
       </c>
       <c r="D93">
-        <v>-0.2384238148504294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2691859591256204</v>
+      </c>
+      <c r="E93">
+        <v>0.07781306023698785</v>
+      </c>
+      <c r="F93">
+        <v>-0.004075343701551943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.05667289271656238</v>
+        <v>0.1303341446960671</v>
       </c>
       <c r="C94">
-        <v>0.1455335508644754</v>
+        <v>-0.0246999372384447</v>
       </c>
       <c r="D94">
-        <v>0.001566198247078044</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04299213136829749</v>
+      </c>
+      <c r="E94">
+        <v>-0.05816209917893009</v>
+      </c>
+      <c r="F94">
+        <v>-0.03576566040483181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03961492559230668</v>
+        <v>0.1270024679692018</v>
       </c>
       <c r="C95">
-        <v>0.1237452318311753</v>
+        <v>-0.00374269374123037</v>
       </c>
       <c r="D95">
-        <v>0.05273026081460529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.091903353688307</v>
+      </c>
+      <c r="E95">
+        <v>-0.04669747169700268</v>
+      </c>
+      <c r="F95">
+        <v>0.007551171383139339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9413106073031725</v>
+        <v>0.1063607620315143</v>
       </c>
       <c r="C96">
-        <v>0.3244958608529674</v>
+        <v>0.9875548347119132</v>
       </c>
       <c r="D96">
-        <v>-0.02141684384140053</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04723467878228019</v>
+      </c>
+      <c r="E96">
+        <v>-0.05547660897259597</v>
+      </c>
+      <c r="F96">
+        <v>-0.04218640068706719</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.02882575775751093</v>
+        <v>0.1926030890297391</v>
       </c>
       <c r="C97">
-        <v>0.1546093771530171</v>
+        <v>0.007178813321578638</v>
       </c>
       <c r="D97">
-        <v>-0.08047059548575586</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01799432593188182</v>
+      </c>
+      <c r="E97">
+        <v>-0.01794601438876258</v>
+      </c>
+      <c r="F97">
+        <v>0.09226366098346203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.04690639721896185</v>
+        <v>0.2044902504120646</v>
       </c>
       <c r="C98">
-        <v>0.1868572707760787</v>
+        <v>-0.007043789205927265</v>
       </c>
       <c r="D98">
-        <v>0.01242009881937461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01377481831743796</v>
+      </c>
+      <c r="E98">
+        <v>0.08398133842980977</v>
+      </c>
+      <c r="F98">
+        <v>0.09484560163066823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.01007027408879941</v>
+        <v>0.05545927754567326</v>
       </c>
       <c r="C99">
-        <v>0.05794522251541798</v>
+        <v>0.004733264781820176</v>
       </c>
       <c r="D99">
-        <v>0.005195234149824649</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03942040942598964</v>
+      </c>
+      <c r="E99">
+        <v>-0.02272869125530648</v>
+      </c>
+      <c r="F99">
+        <v>-0.0009970723304389396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.006383544609812959</v>
+        <v>0.1258098566925354</v>
       </c>
       <c r="C100">
-        <v>0.1254007951843273</v>
+        <v>0.05422467956312144</v>
       </c>
       <c r="D100">
-        <v>0.6998951444204776</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3437637699246765</v>
+      </c>
+      <c r="E100">
+        <v>0.8895837975525106</v>
+      </c>
+      <c r="F100">
+        <v>0.1394054819996033</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01565403614359857</v>
+        <v>0.02733330059601625</v>
       </c>
       <c r="C101">
-        <v>0.01906987974951143</v>
+        <v>-0.008339292428238712</v>
       </c>
       <c r="D101">
-        <v>0.004263893432233852</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03137352802482955</v>
+      </c>
+      <c r="E101">
+        <v>-0.01041265126356135</v>
+      </c>
+      <c r="F101">
+        <v>0.01326901957316889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
